--- a/data/income_statement/1digit/size/A_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/A_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>A-Agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>A-Agriculture, forestry and fishing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1856322.97101</v>
+        <v>1908833.47241</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2126452.36752</v>
+        <v>2245703.67129</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2515964.77102</v>
+        <v>2622748.46617</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2852424.98895</v>
+        <v>3064051.17717</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4333240.0941</v>
+        <v>4581628.77754</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4797253.508670001</v>
+        <v>5282907.34765</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5302986.343460001</v>
+        <v>5801417.299580001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5672524.74162</v>
+        <v>6325659.320210001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6254675.76466</v>
+        <v>6960581.394719999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12491241.10655</v>
+        <v>12917441.05735</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>15703762.80472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15323166.71964</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>17142828.45</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1729052.49068</v>
+        <v>1774655.29335</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2004412.34615</v>
+        <v>2096746.1558</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2365334.77492</v>
+        <v>2447126.60648</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2721276.40858</v>
+        <v>2915845.22929</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4060775.25262</v>
+        <v>4305171.484689999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4516411.732179999</v>
+        <v>4972636.36054</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4990034.101720001</v>
+        <v>5452779.637850001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5385548.531649999</v>
+        <v>5958413.77597</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5905234.09858</v>
+        <v>6562228.130860001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11535698.53565</v>
+        <v>11943324.22395</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>14648049.59733</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14129920.36912</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>15906695.72</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>93783.01815999999</v>
+        <v>100781.0908</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>87394.07347</v>
+        <v>108942.73975</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>105937.18753</v>
+        <v>115397.70218</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>67786.00639</v>
+        <v>76153.38089</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>168780.87197</v>
+        <v>167698.28665</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>184920.01809</v>
+        <v>191815.39031</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>213978.23874</v>
+        <v>228621.03264</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>171266.01013</v>
+        <v>237928.8029</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>224362.69811</v>
+        <v>256256.37794</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>728768.54169</v>
+        <v>740729.4687599998</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>778188.7828500001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>893400.3549800001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>905112.0600000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>33487.46216999999</v>
+        <v>33397.08826</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>34645.9479</v>
+        <v>40014.77574</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>44692.80857</v>
+        <v>60224.15751</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>63362.57398</v>
+        <v>72052.56698999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>103683.96951</v>
+        <v>108759.0062</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>95921.75839999999</v>
+        <v>118455.5968</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>98974.00300000001</v>
+        <v>120016.62909</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>115710.19984</v>
+        <v>129316.74134</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>125078.96797</v>
+        <v>142096.88592</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>226774.02921</v>
+        <v>233387.36464</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>277524.42454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>299845.99554</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>331020.67</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>9755.92535</v>
+        <v>9562.86118</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8501.71306</v>
+        <v>9168.95557</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>7440.737660000001</v>
+        <v>9886.47545</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>9562.349570000002</v>
+        <v>11342.84732</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>18504.19073</v>
+        <v>17628.22249</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11799.56584</v>
+        <v>16140.62227</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>14497.8262</v>
+        <v>18155.98792</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>18639.18973000001</v>
+        <v>31591.01747</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>29704.66534</v>
+        <v>39559.98587</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>71424.80348999999</v>
+        <v>77536.72919999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1211349.0417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>104727.80288</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>670681.767</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7654.695189999999</v>
+        <v>7177.206929999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6172.37479</v>
+        <v>6487.69256</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5258.42988</v>
+        <v>6316.4221</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>6383.436350000001</v>
+        <v>7760.65083</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12822.7056</v>
+        <v>11568.74319</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8697.457</v>
+        <v>11158.02366</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>11233.21023</v>
+        <v>13084.45259</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>13952.9852</v>
+        <v>21079.46937</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>26380.39242</v>
+        <v>29215.58459</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>51843.33031999999</v>
+        <v>56107.59247999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1188162.38524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>77486.04538000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>633816.204</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1320.85594</v>
+        <v>1590.39709</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1706.24774</v>
+        <v>1818.20457</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1571.74097</v>
+        <v>2881.901899999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1524.10557</v>
+        <v>2404.0409</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4062.49983</v>
+        <v>4206.379680000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1208.7802</v>
+        <v>2020.06979</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1684.26156</v>
+        <v>2630.25638</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3273.1814</v>
+        <v>6421.923069999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1654.3083</v>
+        <v>3882.42616</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>10099.70033</v>
+        <v>12376.4799</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8192.00526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12595.64554</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>11482.608</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>780.3742199999999</v>
+        <v>795.2571599999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>623.0905299999999</v>
+        <v>863.05844</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>610.56681</v>
+        <v>688.15145</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1654.80765</v>
+        <v>1178.15559</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1618.9853</v>
+        <v>1853.09962</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1893.32864</v>
+        <v>2962.52882</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1580.35441</v>
+        <v>2441.27895</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1413.02313</v>
+        <v>4089.625030000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1669.96462</v>
+        <v>6461.975119999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>9481.772840000001</v>
+        <v>9052.656820000002</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>14994.6512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14646.11196</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>25382.955</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1846567.04566</v>
+        <v>1899270.61123</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2117950.65446</v>
+        <v>2236534.71572</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2508524.03336</v>
+        <v>2612861.99072</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2842862.63938</v>
+        <v>3052708.329849999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4314735.903369999</v>
+        <v>4564000.55505</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4785453.94283</v>
+        <v>5266766.72538</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5288488.517259999</v>
+        <v>5783261.31166</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5653885.551890001</v>
+        <v>6294068.302740001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6224971.099320001</v>
+        <v>6921021.408849999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>12419816.30306</v>
+        <v>12839904.32815</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14492413.76302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15218438.91676</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>16472146.683</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1626085.46972</v>
+        <v>1692541.46677</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1859516.39161</v>
+        <v>1972226.40646</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2224694.97066</v>
+        <v>2321633.78944</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2514666.82418</v>
+        <v>2724503.52461</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3820625.07198</v>
+        <v>4082571.08389</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4240562.35363</v>
+        <v>4696283.190320001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4687178.14337</v>
+        <v>5141537.172320001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5068382.5127</v>
+        <v>5652023.22811</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5501993.58051</v>
+        <v>6126345.97162</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11098916.59313</v>
+        <v>11492418.45527</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13118795.00664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13791810.96134</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>14756482.429</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>851044.5747199999</v>
+        <v>924165.7213299999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>977378.9029699999</v>
+        <v>1074199.45509</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1100321.62506</v>
+        <v>1181739.79201</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1310632.22151</v>
+        <v>1497799.75216</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2016240.36796</v>
+        <v>2269268.95734</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1969969.03424</v>
+        <v>2374498.554039999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2280332.49935</v>
+        <v>2643499.39109</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2202865.3365</v>
+        <v>2678646.35983</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2394904.57954</v>
+        <v>2911188.66732</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6165067.811109999</v>
+        <v>6483419.63808</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>7198829.07408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7558448.116239999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>8175269.28</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>682166.2322000001</v>
+        <v>672937.25825</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>783091.1518400001</v>
+        <v>786151.1856900001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1013187.70421</v>
+        <v>1019117.77507</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1042329.21329</v>
+        <v>1055610.05011</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1585771.63174</v>
+        <v>1609631.72716</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1995466.32365</v>
+        <v>2055153.39806</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2113640.81825</v>
+        <v>2194877.42631</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2553760.22869</v>
+        <v>2684955.97774</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2640371.48442</v>
+        <v>2768227.95666</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4369743.22902</v>
+        <v>4490102.938019999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5288837.52866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5644104.7419</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5893448.099</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>75342.17903000001</v>
+        <v>74808.16369</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>80754.5202</v>
+        <v>89539.05047999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>100637.57129</v>
+        <v>104784.0979</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>145737.00426</v>
+        <v>145977.11367</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>186251.31555</v>
+        <v>164768.64185</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>241964.24053</v>
+        <v>222404.65943</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>258433.3117899999</v>
+        <v>244747.31661</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>267972.37052</v>
+        <v>243857.8737300001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>413342.79698</v>
+        <v>390193.0705300001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>489881.00098</v>
+        <v>445413.9962499999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>535023.92628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>491998.7753500001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>595848.2610000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>17532.48377</v>
+        <v>20630.3235</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>18291.8166</v>
+        <v>22336.7152</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10548.0701</v>
+        <v>15992.12446</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>15968.38512</v>
+        <v>25116.60867</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>32361.75673</v>
+        <v>38901.75754</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>33162.75521</v>
+        <v>44226.57879</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>34771.51398</v>
+        <v>58413.03831</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>43784.57699</v>
+        <v>44563.01681</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>53374.71957</v>
+        <v>56736.27711</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>74224.55202000002</v>
+        <v>73481.88292</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>96104.47761999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>97259.32785000002</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>91916.789</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>220481.57594</v>
+        <v>206729.14446</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>258434.26285</v>
+        <v>264308.30926</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>283829.0627000001</v>
+        <v>291228.20128</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>328195.8152</v>
+        <v>328204.80524</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>494110.8313900001</v>
+        <v>481429.47116</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>544891.5891999999</v>
+        <v>570483.5350599999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>601310.3738899998</v>
+        <v>641724.1393399999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>585503.0391899999</v>
+        <v>642045.07463</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>722977.5188099999</v>
+        <v>794675.4372299998</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1320899.70993</v>
+        <v>1347485.87288</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1373618.75638</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1426627.95542</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1715664.254</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>172852.87351</v>
+        <v>167604.08382</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>208876.76493</v>
+        <v>214565.90611</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>251390.23226</v>
+        <v>256751.28413</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>308396.6368400001</v>
+        <v>308415.61276</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>424308.4933999999</v>
+        <v>407989.0140000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>452576.21391</v>
+        <v>443654.7561100001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>509781.2085000001</v>
+        <v>496500.41734</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>545500.28689</v>
+        <v>556090.45916</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>634262.35536</v>
+        <v>651200.0650599999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>976277.00795</v>
+        <v>924537.16908</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1157612.9393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1144688.51886</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1219952.914</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>526.64729</v>
+        <v>1348.1662</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>803.3518299999999</v>
+        <v>206.98414</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1320.43014</v>
+        <v>939.30244</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>788.9425</v>
+        <v>520.1615099999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1531.69766</v>
+        <v>796.48225</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2962.10513</v>
+        <v>2287.99303</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1537.98766</v>
+        <v>3324.47838</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2934.43747</v>
+        <v>3941.34995</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3977.22302</v>
+        <v>5476.53476</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>5462.24618</v>
+        <v>9189.55624</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>10468.54575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14297.12159</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>18746.622</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>43815.897</v>
+        <v>44547.48536999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>53266.03089000001</v>
+        <v>59051.03951999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>54380.64219999999</v>
+        <v>57565.22757</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>67991.6525</v>
+        <v>71690.42671</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>90619.74631</v>
+        <v>92227.44235999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>92096.51174000002</v>
+        <v>97769.13387000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>107811.52244</v>
+        <v>114425.88445</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>104953.84772</v>
+        <v>124823.52719</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>134408.43923</v>
+        <v>152426.73184</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>248639.8961</v>
+        <v>267194.78242</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>299497.0282899999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>320169.54553</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>302716.126</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>128510.32922</v>
+        <v>121708.43225</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>154807.38221</v>
+        <v>155307.88245</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>195689.15992</v>
+        <v>198246.75412</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>239616.04184</v>
+        <v>236205.02454</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>332157.04943</v>
+        <v>314965.0893899999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>357517.59704</v>
+        <v>343597.62921</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>400431.6984000001</v>
+        <v>378750.05451</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>437612.0017</v>
+        <v>427325.58202</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>495876.69311</v>
+        <v>493296.79846</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>722174.86567</v>
+        <v>648152.8304199998</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>847647.3652599999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>810221.8517399998</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>898490.166</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>47628.70243</v>
+        <v>39125.06064</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>49557.49792</v>
+        <v>49742.40314999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>32438.83044</v>
+        <v>34476.91715000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>19799.17836</v>
+        <v>19789.19248</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>69802.33799000001</v>
+        <v>73440.45716000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>92315.37528999998</v>
+        <v>126828.77895</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>91529.16539000001</v>
+        <v>145223.722</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>40002.7523</v>
+        <v>85954.61547</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>88715.16344999999</v>
+        <v>143475.37217</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>344622.70198</v>
+        <v>422948.7038</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>216005.81708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>281939.43656</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>495711.34</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>17973.7197</v>
+        <v>23470.18242</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>16849.89632</v>
+        <v>25528.52384</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>22087.07612999999</v>
+        <v>33541.12202</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>24048.62299</v>
+        <v>49854.73604999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>52113.62781000001</v>
+        <v>68216.24673</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>46447.34363</v>
+        <v>71230.22877000002</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>68869.40513000001</v>
+        <v>89745.28563</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>66817.9964</v>
+        <v>104275.3647</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>85516.01314</v>
+        <v>134121.79742</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>329616.6659499999</v>
+        <v>401627.92691</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>246186.77154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>361991.20122</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>403186.131</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>144.72271</v>
+        <v>739.35227</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>265.84713</v>
+        <v>373.77513</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>251.17655</v>
+        <v>226.659</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>420.89425</v>
+        <v>5605.5999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>563.34792</v>
+        <v>383.16792</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>456.72496</v>
+        <v>1411.06218</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4608.47733</v>
+        <v>2520.40155</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2013.12005</v>
+        <v>6789.827290000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>479.7393000000001</v>
+        <v>4345.950150000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3126.21772</v>
+        <v>14726.16222</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4718.321190000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>87167.12054</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>10717.749</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,19 +1833,19 @@
         <v>5.530139999999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>39.20918</v>
+        <v>4907.503449999999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>19.39995</v>
+        <v>89.92388000000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>8.960319999999999</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>2.95784</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1461.4884</v>
+        <v>5751.78687</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1838,232 +1854,262 @@
         <v>111.81347</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>9891.014880000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>699.0148799999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>45.376</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2254.95527</v>
+        <v>1706.29663</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2171.25179</v>
+        <v>1790.81731</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2441.51484</v>
+        <v>3647.2178</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3335.10505</v>
+        <v>5982.1361</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>5817.6057</v>
+        <v>13477.91375</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5654.03321</v>
+        <v>10671.09207</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>7784.11788</v>
+        <v>9245.605610000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>8692.738079999999</v>
+        <v>11448.07764</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>10877.11554</v>
+        <v>13053.90181</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>34846.39364999999</v>
+        <v>29816.47128</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>35261.04792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>37025.73817</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>29622.718</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>148.41611</v>
+        <v>98.91282999999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>207.18455</v>
+        <v>277.30423</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>455.29213</v>
+        <v>576.7723000000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1107.07233</v>
+        <v>529.6854599999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1061.93469</v>
+        <v>771.3610199999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>887.62014</v>
+        <v>890.75077</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>995.39189</v>
+        <v>1090.93444</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2609.62252</v>
+        <v>2620.49989</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2659.03927</v>
+        <v>2673.65721</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>4004.93355</v>
+        <v>4260.130220000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3984.77604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4446.56628</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3786.834</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>95.33917</v>
+        <v>92.80641</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>55.29163</v>
+        <v>183.7939</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>291.7881</v>
+        <v>641.7502999999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1365.32741</v>
+        <v>306.19062</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3844.55854</v>
+        <v>1290.27778</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2596.20335</v>
+        <v>1225.02883</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3027.25546</v>
+        <v>1412.96772</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1978.59434</v>
+        <v>3622.79193</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1142.47087</v>
+        <v>5642.76781</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4821.62064</v>
+        <v>1857.30517</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4185.67851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>808.00793</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>398.47</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>509.62129</v>
+        <v>181.61007</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>59.19303000000001</v>
+        <v>61.62765</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>203.39661</v>
+        <v>265.96221</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>471.75304</v>
+        <v>591.1385299999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1364.92663</v>
+        <v>641.2340400000002</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>425.7672499999999</v>
+        <v>290.89674</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1043.6175</v>
+        <v>1731.70056</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>844.9898099999999</v>
+        <v>536.5903999999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>890.8751500000001</v>
+        <v>764.56169</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2589.89825</v>
+        <v>2016.2598</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2460.06384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>6292.205830000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>31929.979</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6427.747520000001</v>
+        <v>9694.593209999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>6362.416230000001</v>
+        <v>10628.20772</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5531.18175</v>
+        <v>15521.47224</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2809.96459</v>
+        <v>8221.012930000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>11637.07153</v>
+        <v>14051.72754</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>9077.211229999999</v>
+        <v>18847.14426</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>20805.0701</v>
+        <v>35472.01216000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>16908.72931999999</v>
+        <v>29062.56937</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>22231.17073</v>
+        <v>55825.17651</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>197752.40841</v>
+        <v>263347.63251</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>86527.83225000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>128435.70648</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>209780.91</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1.02674</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0.7277400000000001</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>5.701</v>
+        <v>5.26065</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>181.80144</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>1.2274</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>81.91874</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>65.03456</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
@@ -2074,32 +2120,37 @@
       <c r="M33" s="48" t="n">
         <v>68.64591</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>364.87</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>12.88654</v>
+        <v>10.44599</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>8.60604</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>38.0883</v>
+        <v>37.22072</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>13.74118</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>80.52837</v>
+        <v>65.69542</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>349.32124</v>
+        <v>1027.52294</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>51.47854</v>
+        <v>105.12512</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>36.53019</v>
@@ -2108,910 +2159,1028 @@
         <v>303.38206</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>8.257</v>
+        <v>8.257070000000001</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>47.05996999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>185.915</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8379.004349999999</v>
+        <v>10946.16501</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7719.378180000001</v>
+        <v>12204.39186</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>12869.10771</v>
+        <v>12618.53731</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>14479.85496</v>
+        <v>23706.20841</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>27724.25448</v>
+        <v>37263.14393999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>26999.23485</v>
+        <v>36856.54326</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>30469.11985</v>
+        <v>38163.58063</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>32207.14913</v>
+        <v>44406.69112</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>46932.22022</v>
+        <v>51512.40017999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>82342.99397999998</v>
+        <v>85471.76589</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>99042.33102999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>97001.13523</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>116353.31</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>18814.73239</v>
+        <v>20772.22425</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>12502.24736</v>
+        <v>19034.68353</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>17740.17348</v>
+        <v>31080.91286</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>10512.81323</v>
+        <v>21432.32205999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>34830.05428999999</v>
+        <v>49329.12719</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>22575.81633</v>
+        <v>37743.9316</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>43103.25295999999</v>
+        <v>67726.48665000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>35004.88044000001</v>
+        <v>72999.58529</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>41324.1619</v>
+        <v>93395.60904</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>237124.52093</v>
+        <v>402044.36312</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>142204.27304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>206097.97864</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>237755.571</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>202.38106</v>
+        <v>224.63725</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>486.65266</v>
+        <v>586.50413</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>576.20661</v>
+        <v>731.1055899999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>677.87123</v>
+        <v>842.4772100000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1487.59956</v>
+        <v>1464.87299</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1406.26685</v>
+        <v>1900.28238</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1802.9847</v>
+        <v>2306.7819</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1451.55412</v>
+        <v>1717.32115</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1175.62661</v>
+        <v>1583.19554</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2701.10274</v>
+        <v>2512.09364</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3608.1507</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3572.33691</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4181.191</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2894.069190000001</v>
+        <v>2885.06432</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>510.15768</v>
+        <v>1397.75854</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1928.70099</v>
+        <v>2672.47429</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2131.25568</v>
+        <v>3340.88348</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4240.98992</v>
+        <v>4937.49417</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2767.88799</v>
+        <v>3716.905099999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6620.20205</v>
+        <v>8874.889930000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4916.894359999999</v>
+        <v>5426.95005</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7113.272910000001</v>
+        <v>7258.332989999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>17582.83676</v>
+        <v>14182.76136</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>8632.023299999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>10555.31949</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14791.144</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>209.08827</v>
+        <v>29.47395</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>51.97224000000001</v>
+        <v>47.09299</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>46.72544</v>
+        <v>1162.78663</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>270.89196</v>
+        <v>56.81158</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>484.82642</v>
+        <v>406.64577</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>73.87265999999998</v>
+        <v>61.70201</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>90.65674</v>
+        <v>1113.80141</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>812.38152</v>
+        <v>50.42641</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>125.1868</v>
+        <v>634.96041</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>882.06141</v>
+        <v>358.77642</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1513.50574</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3608.43427</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2141.518</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>8105.842970000001</v>
+        <v>11088.80909</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5604.67631</v>
+        <v>10518.01384</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>8129.405049999999</v>
+        <v>17777.68477</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2470.2988</v>
+        <v>8782.895719999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>15748.52109</v>
+        <v>26032.48638</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8704.645979999999</v>
+        <v>19940.75107000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>19318.5611</v>
+        <v>37004.02223</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>15808.52205</v>
+        <v>48958.30328999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>21783.99643</v>
+        <v>68523.25464</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>196833.50094</v>
+        <v>327406.2458699999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>91576.71578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>149971.43331</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>188737.927</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>25.7991</v>
+        <v>37.95252000000001</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>16.98337</v>
+        <v>11.46055</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>244.80229</v>
+        <v>239.46213</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>166.17025</v>
+        <v>142.39743</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>34.12779</v>
+        <v>194.83509</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0.6215499999999999</v>
+        <v>14.08181</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>48.53328</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>140.01713</v>
+        <v>94.70474</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>50.7705</v>
+        <v>0.7563799999999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>793.06296</v>
+        <v>619.2842099999999</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>5.80705</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>295.87</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>21.07771</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>29.03925</v>
+        <v>16.32738</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>10.9177</v>
+        <v>91.26826</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>6.08455</v>
+        <v>318.41617</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>397.27326</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>27.80801</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>1.08169</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>18.06487</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>12.15194</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0</v>
+        <v>29.88143</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>7356.47409</v>
+        <v>6485.20941</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5802.76585</v>
+        <v>6457.5261</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6803.415400000001</v>
+        <v>8406.13119</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4790.240760000001</v>
+        <v>7948.44047</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>12436.71625</v>
+        <v>16292.79279</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>9594.71329</v>
+        <v>12082.40122</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>15221.2334</v>
+        <v>18426.99118</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11857.44639</v>
+        <v>16751.87965</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>11075.30865</v>
+        <v>15382.95714</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>18331.95612</v>
+        <v>56935.32019</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>36868.07047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>38384.64761000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>27607.921</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>27811.09451</v>
+        <v>31632.09528</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>26637.42035</v>
+        <v>31851.8779</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>27537.73416</v>
+        <v>35194.51723999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>41351.06033</v>
+        <v>56154.69511000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>69486.64968</v>
+        <v>92836.46851000002</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>81025.17618000001</v>
+        <v>123762.4023</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>97094.27681</v>
+        <v>129282.46196</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>104334.50263</v>
+        <v>142200.57589</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>118398.42557</v>
+        <v>160501.06755</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>348779.8697</v>
+        <v>422317.67676</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>372158.86592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>412151.3522199999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>375326.313</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>26702.43235</v>
+        <v>30541.84193</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>24736.34737</v>
+        <v>29545.08625</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>25156.70504</v>
+        <v>31822.99779999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>37440.83165000001</v>
+        <v>48225.3481</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>63548.8945</v>
+        <v>75473.20995000002</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>76247.52137</v>
+        <v>106564.25413</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>90456.62591</v>
+        <v>118786.26107</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>98514.39737000001</v>
+        <v>131287.36905</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>111161.95171</v>
+        <v>142305.58763</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>298673.79179</v>
+        <v>318291.22979</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>332776.3542</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>352348.8579600001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>314696.972</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1108.66216</v>
+        <v>1090.25335</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1901.07298</v>
+        <v>2306.79165</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2381.02912</v>
+        <v>3371.51944</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3910.22868</v>
+        <v>7929.347010000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5937.755180000001</v>
+        <v>17363.25856</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4777.65481</v>
+        <v>17198.14817</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>6637.650900000001</v>
+        <v>10496.20089</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5820.10526</v>
+        <v>10913.20684</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>7236.47386</v>
+        <v>18195.47992</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>50106.07790999999</v>
+        <v>104026.44697</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>39382.51172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>59802.49426000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>60629.341</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>18976.59523</v>
+        <v>10190.92353</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>27267.72653</v>
+        <v>24384.36556</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>9247.99893</v>
+        <v>1742.609069999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-8016.072210000002</v>
+        <v>-7943.088640000005</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>17599.26183</v>
+        <v>-508.8918100000024</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>35161.72641</v>
+        <v>36552.67382</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>20201.04075</v>
+        <v>37960.05901999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-32518.63437</v>
+        <v>-24970.18101</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>14508.58912</v>
+        <v>23700.49299999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>88334.9773</v>
+        <v>214.5908299999982</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-52170.55034000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>25681.30692000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>285815.587</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>16191.44053</v>
+        <v>15511.95384</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>22760.01266</v>
+        <v>26827.43548</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>31752.1924</v>
+        <v>32524.23359</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>38924.29716999999</v>
+        <v>38271.16338999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>47498.62879</v>
+        <v>55694.525</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>48173.92160999999</v>
+        <v>70374.84045</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>69509.49145999999</v>
+        <v>65795.26457000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>69735.57965</v>
+        <v>64363.50261</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>70843.8939</v>
+        <v>83798.87086</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>124681.53962</v>
+        <v>138737.48492</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>153032.53041</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>142912.79255</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>225120.62</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>686.49405</v>
+        <v>235.82194</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>290.61611</v>
+        <v>134.31611</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>302.31887</v>
+        <v>193.42051</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>610.9782700000001</v>
+        <v>236.98634</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>299.1661</v>
+        <v>707.1451000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>651.5598600000001</v>
+        <v>569.32437</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>952.4842400000001</v>
+        <v>341.32583</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>251.60084</v>
+        <v>338.73902</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>777.6581199999999</v>
+        <v>816.93832</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>947.3131800000001</v>
+        <v>1062.56958</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1225.47078</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>962.22232</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1994.574</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>15504.94648</v>
+        <v>15276.1319</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>22469.39655</v>
+        <v>26693.11937</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>31449.87353</v>
+        <v>32330.81308</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>38313.31890000001</v>
+        <v>38034.17705</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>47199.46269</v>
+        <v>54987.3799</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>47522.36174999999</v>
+        <v>69805.51608</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>68557.00722</v>
+        <v>65453.93874000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>69483.97881</v>
+        <v>64024.76359</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>70066.23578</v>
+        <v>82981.93254000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>123734.22644</v>
+        <v>137674.91534</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>151807.05963</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>141950.57023</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>223126.046</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>20195.13313</v>
+        <v>18941.65132</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>15402.52057</v>
+        <v>19210.02889999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>45549.89783</v>
+        <v>48550.42545</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>24304.47803</v>
+        <v>31882.53966</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>35143.45515</v>
+        <v>47542.80805000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>48544.98104999999</v>
+        <v>76918.94662</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>46364.21457</v>
+        <v>41620.30367</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>90042.41959999999</v>
+        <v>101352.56157</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>60192.83071000001</v>
+        <v>69459.11036000002</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>158834.29196</v>
+        <v>177891.71932</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>112507.42371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>104902.26281</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>125745.874</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2665.50196</v>
+        <v>3304.88772</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2047.77673</v>
+        <v>3212.99388</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1290.46488</v>
+        <v>1560.68536</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2060.40136</v>
+        <v>6280.7415</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2850.68595</v>
+        <v>3109.87926</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2627.86835</v>
+        <v>2824.80459</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4477.97725</v>
+        <v>4218.47879</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4605.33296</v>
+        <v>3781.686099999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5387.85084</v>
+        <v>5193.52447</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4326.66366</v>
+        <v>8051.69592</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>8087.89222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4837.304139999998</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>21983.075</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>761.1805999999999</v>
+        <v>733.7678199999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>752.7408500000001</v>
+        <v>670.5077200000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>602.9429200000001</v>
+        <v>639.3773699999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1224.8791</v>
+        <v>1391.42465</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1805.68835</v>
+        <v>2305.77935</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2959.72681</v>
+        <v>5452.66108</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2944.91872</v>
+        <v>2555.3561</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2147.09071</v>
+        <v>2491.69861</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3384.07958</v>
+        <v>4102.189139999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3678.38154</v>
+        <v>3477.44934</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6279.77162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5265.54321</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2348.381</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>16768.45057</v>
+        <v>14902.99578</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>12602.00299</v>
+        <v>15326.5273</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>43656.49003</v>
+        <v>46350.36272</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>21019.19757</v>
+        <v>24210.37351</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>30487.08085</v>
+        <v>42127.14944000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>42957.38589</v>
+        <v>68641.48095</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>38941.3186</v>
+        <v>34846.46878</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>83289.99592999998</v>
+        <v>95079.17686000002</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>51420.90029000001</v>
+        <v>60163.39675</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>150829.24676</v>
+        <v>166362.57406</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>98139.75986999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>94799.41545999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>101414.418</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>14972.90263</v>
+        <v>6761.22605</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>34625.21862000001</v>
+        <v>32001.77214</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-4549.706499999999</v>
+        <v>-14283.58279</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6603.746930000001</v>
+        <v>-1554.464910000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>29954.43547</v>
+        <v>7642.825140000004</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>34790.66697000001</v>
+        <v>30008.56765</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>43346.31764000001</v>
+        <v>62135.01992000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-52825.47431999999</v>
+        <v>-61959.23997</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>25159.65231</v>
+        <v>38040.2535</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>54182.22495999999</v>
+        <v>-38939.64357000002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-11645.44363999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>63691.83665999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>385190.333</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>8848.831529999999</v>
+        <v>8994.79967</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>9724.612659999999</v>
+        <v>10082.5667</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>12160.01637</v>
+        <v>12450.11923</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>12039.15587</v>
+        <v>12214.40454</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>17556.99375</v>
+        <v>18699.95272</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>20878.40162</v>
+        <v>20885.72841</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>25072.06418</v>
+        <v>27316.58006000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>21384.82702</v>
+        <v>23790.0088</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>23807.20013</v>
+        <v>28359.65454</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>56074.34198</v>
+        <v>53308.18400000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>57371.31034999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>60566.73463000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>82322.492</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6124.071099999999</v>
+        <v>-2233.57362</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>24900.60596</v>
+        <v>21919.20544</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-16709.72287</v>
+        <v>-26733.70202</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-5435.408939999999</v>
+        <v>-13768.86945</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>12397.44172</v>
+        <v>-11057.12758</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>13912.26535</v>
+        <v>9122.839239999998</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>18274.25346</v>
+        <v>34818.43986</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-74210.30133999999</v>
+        <v>-85749.24876999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1352.452180000001</v>
+        <v>9680.598960000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1892.117020000014</v>
+        <v>-92247.82757000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-69016.75398999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3125.102030000009</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>302867.841</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1002</v>
+        <v>741</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1245</v>
+        <v>859</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1492</v>
+        <v>1005</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1687</v>
+        <v>1177</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2106</v>
+        <v>1365</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2419</v>
+        <v>1498</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2636</v>
+        <v>1588</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2842</v>
+        <v>1616</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3059</v>
+        <v>1734</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2123</v>
+        <v>1428</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1530</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>